--- a/src/main/resources/example_in.xlsx
+++ b/src/main/resources/example_in.xlsx
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>44826</v>
+        <v>44923</v>
       </c>
       <c r="C6" s="1"/>
     </row>
